--- a/india/Takeda UAMS Success Stories_China&Japan.xlsx
+++ b/india/Takeda UAMS Success Stories_China&Japan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71FBE4-F763-4D4A-AF5F-4CC313A37280}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F438A62-3273-4A6C-8216-62DE57051E10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68F3D7A6-4CDB-4692-90B7-DC0A58E18017}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="252">
   <si>
     <t>Solution</t>
   </si>
@@ -911,6 +911,37 @@
   </si>
   <si>
     <t>Automated db operations, data analysing and processing,  report sending.</t>
+  </si>
+  <si>
+    <t>NTT AI voice system</t>
+  </si>
+  <si>
+    <t>End users such as supermarket, convenience store and some companies may offten need to hire a lot of operators to answer the phone of customers and handle some simple processes.</t>
+  </si>
+  <si>
+    <t>Save manpower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed an AI voice system to answer the phone of customers and record information to system or do some process automatically. Escalate to operators by user instruction.
+</t>
+  </si>
+  <si>
+    <t>- Application need no rest. Provide 7 * 24h service.
+- Undertake most work of operators.</t>
+  </si>
+  <si>
+    <t>- Reducing a lot of cost from hiring operators.
+- Keep serving customers all the time.
+- Accumulating data which can be used to analyze customers' preference and so on</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>NTT</t>
+  </si>
+  <si>
+    <t>K2 China team has similar use case such as answering customer questions.</t>
   </si>
 </sst>
 </file>
@@ -1111,12 +1142,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1166,6 +1191,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,11 +1516,11 @@
   <dimension ref="A2:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,10 +1954,10 @@
       <c r="A11" s="18">
         <v>1777</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1935,7 +1966,7 @@
       <c r="E11" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="46" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -1970,15 +2001,15 @@
       <c r="A12" s="18">
         <v>1136</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="17" t="s">
         <v>71</v>
       </c>
@@ -2140,10 +2171,10 @@
       <c r="A16" s="18">
         <v>1787</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -2183,8 +2214,8 @@
       <c r="A17" s="18">
         <v>1788</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
@@ -2706,7 +2737,7 @@
       <c r="F29" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>201</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -2742,10 +2773,10 @@
       <c r="E30" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="31" t="s">
         <v>201</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -2768,408 +2799,435 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="35"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="29" t="s">
+      <c r="K31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="33"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="28" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="1:15" s="26" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="36" t="s">
+      <c r="K32" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="33"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="1:15" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="36" t="s">
+      <c r="K33" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="33"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:15" s="26" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="36" t="s">
+      <c r="K34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="33"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="1:15" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="36" t="s">
+      <c r="K35" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="33"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="32" t="s">
+    <row r="36" spans="1:15" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="K36" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="36" t="s">
+      <c r="K36" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="33"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="32" t="s">
+    <row r="37" spans="1:15" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="H37" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="K37" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="36" t="s">
+      <c r="K37" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="33"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="34" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="K38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="46"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="37" t="s">
+      <c r="K38" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="44"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="33" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="J39" s="42" t="s">
+      <c r="J39" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="K39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="37" t="s">
+      <c r="K39" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="44"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J40" s="40" t="s">
+      <c r="J40" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="K40" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L40" s="46"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="37" t="s">
+      <c r="K40" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+    <row r="41" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" s="36"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="35" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -3456,18 +3514,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3489,14 +3547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB041DD-F45E-4701-875E-AB6C5E01DB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{935316AB-AC77-43C9-9ED5-B0E71CBEFE26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3510,4 +3560,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB041DD-F45E-4701-875E-AB6C5E01DB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>